--- a/chart/db_chart.xlsx
+++ b/chart/db_chart.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gta19\Desktop\dev\Music-Outlier-Browser\chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nurupo/Desktop/dev/Music-Outlier-Browser/chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F1E6E8-F8A5-4AE5-A4C1-EB0AF969AEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421873F6-5C83-9F4B-9310-C21AE844F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12636" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artist Outlier Category 9a010c1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="427">
   <si>
     <t>Artist</t>
   </si>
@@ -1341,7 +1354,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1349,7 +1362,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1357,7 +1370,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -1366,7 +1379,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1375,7 +1388,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1384,7 +1397,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1392,7 +1405,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1400,7 +1413,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1408,7 +1421,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1416,7 +1429,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1425,7 +1438,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1434,7 +1447,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1442,7 +1455,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1451,7 +1464,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1459,7 +1472,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1468,7 +1481,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1477,7 +1490,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1485,14 +1498,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1945,48 +1958,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2004,7 +2017,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2079,7 +2092,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2141,9 +2154,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$19</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Zakk Wylde</c:v>
                 </c:pt>
@@ -2197,16 +2210,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Mamas &amp; The Papas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$19</c:f>
+              <c:f>工作表1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2220,7 +2236,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2260,6 +2276,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,9 +2317,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$19</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Zakk Wylde</c:v>
                 </c:pt>
@@ -2354,16 +2373,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Mamas &amp; The Papas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$19</c:f>
+              <c:f>工作表1!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2416,6 +2438,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2455,9 +2480,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$19</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Zakk Wylde</c:v>
                 </c:pt>
@@ -2511,16 +2536,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Mamas &amp; The Papas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$2:$E$19</c:f>
+              <c:f>工作表1!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2573,6 +2601,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2612,9 +2643,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$19</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Zakk Wylde</c:v>
                 </c:pt>
@@ -2668,16 +2699,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Mamas &amp; The Papas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$F$2:$F$19</c:f>
+              <c:f>工作表1!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2730,6 +2764,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2788,9 +2825,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$19</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Zakk Wylde</c:v>
                 </c:pt>
@@ -2844,16 +2881,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Mamas &amp; The Papas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$2:$G$19</c:f>
+              <c:f>工作表1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2906,6 +2946,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2945,9 +2988,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$19</c:f>
+              <c:f>工作表1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Zakk Wylde</c:v>
                 </c:pt>
@@ -3001,16 +3044,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Mamas &amp; The Papas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$H$2:$H$19</c:f>
+              <c:f>工作表1!$H$2:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3064,6 +3110,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3125,7 +3174,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1879465439"/>
@@ -3181,7 +3230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1879469599"/>
@@ -3230,7 +3279,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3255,7 +3304,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3815,16 +3864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>99391</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>538368</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>206071</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9608</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>645049</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>122804</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4151,17 +4200,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A164" zoomScale="165" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4187,7 +4237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4198,7 +4248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -4209,7 +4259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4223,7 +4273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -4237,7 +4287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -4254,7 +4304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4265,7 +4315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -4279,7 +4329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -4293,7 +4343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -4307,7 +4357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -4321,7 +4371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -4335,7 +4385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -4349,7 +4399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -4363,7 +4413,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -4374,7 +4424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -4388,7 +4438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -4402,7 +4452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -4416,7 +4466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -4430,7 +4480,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>50</v>
       </c>
@@ -4447,7 +4497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -4461,7 +4511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -4472,7 +4522,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -4486,7 +4536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -4500,7 +4550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>62</v>
       </c>
@@ -4514,7 +4564,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -4528,7 +4578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>66</v>
       </c>
@@ -4542,7 +4592,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>68</v>
       </c>
@@ -4559,7 +4609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>71</v>
       </c>
@@ -4573,7 +4623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -4584,7 +4634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>75</v>
       </c>
@@ -4598,7 +4648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>77</v>
       </c>
@@ -4612,7 +4662,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -4626,7 +4676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>81</v>
       </c>
@@ -4643,7 +4693,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -4660,7 +4710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>87</v>
       </c>
@@ -4677,7 +4727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>90</v>
       </c>
@@ -4694,7 +4744,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -4705,7 +4755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>95</v>
       </c>
@@ -4719,7 +4769,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>97</v>
       </c>
@@ -4733,7 +4783,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>99</v>
       </c>
@@ -4747,7 +4797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>101</v>
       </c>
@@ -4758,7 +4808,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>103</v>
       </c>
@@ -4769,7 +4819,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>104</v>
       </c>
@@ -4780,7 +4830,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>105</v>
       </c>
@@ -4794,7 +4844,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -4805,7 +4855,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>109</v>
       </c>
@@ -4819,7 +4869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>111</v>
       </c>
@@ -4833,7 +4883,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>113</v>
       </c>
@@ -4847,7 +4897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>115</v>
       </c>
@@ -4861,7 +4911,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>117</v>
       </c>
@@ -4875,7 +4925,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>119</v>
       </c>
@@ -4889,7 +4939,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>121</v>
       </c>
@@ -4903,7 +4953,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -4914,7 +4964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>125</v>
       </c>
@@ -4928,7 +4978,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>127</v>
       </c>
@@ -4942,7 +4992,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>129</v>
       </c>
@@ -4956,7 +5006,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>131</v>
       </c>
@@ -4970,7 +5020,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>133</v>
       </c>
@@ -4987,7 +5037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>135</v>
       </c>
@@ -5004,7 +5054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>137</v>
       </c>
@@ -5018,7 +5068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>139</v>
       </c>
@@ -5032,7 +5082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -5043,7 +5093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>144</v>
       </c>
@@ -5057,7 +5107,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>146</v>
       </c>
@@ -5071,7 +5121,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>148</v>
       </c>
@@ -5085,7 +5135,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>150</v>
       </c>
@@ -5099,7 +5149,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>153</v>
       </c>
@@ -5113,7 +5163,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>156</v>
       </c>
@@ -5127,7 +5177,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>158</v>
       </c>
@@ -5144,7 +5194,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>161</v>
       </c>
@@ -5158,7 +5208,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>163</v>
       </c>
@@ -5172,7 +5222,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -5186,7 +5236,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>169</v>
       </c>
@@ -5200,7 +5250,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>171</v>
       </c>
@@ -5217,7 +5267,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>174</v>
       </c>
@@ -5234,7 +5284,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>176</v>
       </c>
@@ -5248,7 +5298,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>178</v>
       </c>
@@ -5262,7 +5312,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>180</v>
       </c>
@@ -5276,7 +5326,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>182</v>
       </c>
@@ -5290,7 +5340,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>184</v>
       </c>
@@ -5304,7 +5354,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>186</v>
       </c>
@@ -5315,7 +5365,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>188</v>
       </c>
@@ -5329,7 +5379,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>190</v>
       </c>
@@ -5343,7 +5393,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>193</v>
       </c>
@@ -5357,7 +5407,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>195</v>
       </c>
@@ -5371,7 +5421,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>197</v>
       </c>
@@ -5382,7 +5432,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>199</v>
       </c>
@@ -5399,7 +5449,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>202</v>
       </c>
@@ -5413,7 +5463,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>199</v>
       </c>
@@ -5427,7 +5477,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>205</v>
       </c>
@@ -5438,7 +5488,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>207</v>
       </c>
@@ -5452,7 +5502,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>209</v>
       </c>
@@ -5466,7 +5516,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>211</v>
       </c>
@@ -5480,7 +5530,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>213</v>
       </c>
@@ -5494,7 +5544,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>215</v>
       </c>
@@ -5508,7 +5558,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>217</v>
       </c>
@@ -5522,7 +5572,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>219</v>
       </c>
@@ -5539,7 +5589,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>222</v>
       </c>
@@ -5550,7 +5600,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>224</v>
       </c>
@@ -5564,7 +5614,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>226</v>
       </c>
@@ -5578,7 +5628,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>228</v>
       </c>
@@ -5592,7 +5642,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>230</v>
       </c>
@@ -5609,7 +5659,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>232</v>
       </c>
@@ -5626,7 +5676,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>234</v>
       </c>
@@ -5640,7 +5690,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>236</v>
       </c>
@@ -5654,7 +5704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>238</v>
       </c>
@@ -5668,7 +5718,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>240</v>
       </c>
@@ -5682,7 +5732,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>242</v>
       </c>
@@ -5696,7 +5746,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>244</v>
       </c>
@@ -5707,7 +5757,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>246</v>
       </c>
@@ -5721,7 +5771,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>248</v>
       </c>
@@ -5735,7 +5785,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>250</v>
       </c>
@@ -5749,7 +5799,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>252</v>
       </c>
@@ -5763,7 +5813,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>254</v>
       </c>
@@ -5777,7 +5827,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>256</v>
       </c>
@@ -5791,7 +5841,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>258</v>
       </c>
@@ -5802,7 +5852,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>260</v>
       </c>
@@ -5816,7 +5866,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>262</v>
       </c>
@@ -5830,7 +5880,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>264</v>
       </c>
@@ -5844,7 +5894,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>266</v>
       </c>
@@ -5861,7 +5911,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>269</v>
       </c>
@@ -5875,7 +5925,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>271</v>
       </c>
@@ -5889,12 +5939,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>275</v>
       </c>
@@ -5902,7 +5952,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>277</v>
       </c>
@@ -5916,7 +5966,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>279</v>
       </c>
@@ -5930,7 +5980,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>281</v>
       </c>
@@ -5944,7 +5994,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>283</v>
       </c>
@@ -5961,7 +6011,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>286</v>
       </c>
@@ -5978,7 +6028,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>288</v>
       </c>
@@ -5995,7 +6045,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -6006,7 +6056,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>292</v>
       </c>
@@ -6020,7 +6070,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>294</v>
       </c>
@@ -6034,7 +6084,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>296</v>
       </c>
@@ -6048,7 +6098,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>298</v>
       </c>
@@ -6062,7 +6112,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>300</v>
       </c>
@@ -6076,7 +6126,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>302</v>
       </c>
@@ -6090,7 +6140,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>305</v>
       </c>
@@ -6104,7 +6154,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>307</v>
       </c>
@@ -6118,7 +6168,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>309</v>
       </c>
@@ -6132,7 +6182,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>311</v>
       </c>
@@ -6146,7 +6196,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>313</v>
       </c>
@@ -6154,7 +6204,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>315</v>
       </c>
@@ -6168,7 +6218,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>317</v>
       </c>
@@ -6182,7 +6232,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>319</v>
       </c>
@@ -6196,7 +6246,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>321</v>
       </c>
@@ -6204,7 +6254,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>323</v>
       </c>
@@ -6218,7 +6268,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>325</v>
       </c>
@@ -6232,7 +6282,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>319</v>
       </c>
@@ -6246,7 +6296,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>328</v>
       </c>
@@ -6260,12 +6310,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>331</v>
       </c>
@@ -6273,7 +6323,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>333</v>
       </c>
@@ -6287,7 +6337,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>335</v>
       </c>
@@ -6301,7 +6351,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>337</v>
       </c>
@@ -6315,7 +6365,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>339</v>
       </c>
@@ -6329,7 +6379,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>341</v>
       </c>
@@ -6343,7 +6393,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>343</v>
       </c>
@@ -6351,7 +6401,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>345</v>
       </c>
@@ -6365,7 +6415,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>347</v>
       </c>
@@ -6379,7 +6429,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>349</v>
       </c>
@@ -6393,7 +6443,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>351</v>
       </c>
@@ -6407,7 +6457,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>354</v>
       </c>
@@ -6415,7 +6465,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>356</v>
       </c>
@@ -6429,7 +6479,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>357</v>
       </c>
@@ -6443,7 +6493,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>359</v>
       </c>
@@ -6457,7 +6507,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>360</v>
       </c>
@@ -6465,7 +6515,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>360</v>
       </c>
@@ -6479,7 +6529,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>363</v>
       </c>
@@ -6493,7 +6543,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>365</v>
       </c>
@@ -6507,7 +6557,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>367</v>
       </c>
@@ -6524,7 +6574,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>370</v>
       </c>
@@ -6532,7 +6582,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>371</v>
       </c>
@@ -6546,7 +6596,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>373</v>
       </c>
@@ -6560,7 +6610,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>375</v>
       </c>
@@ -6574,7 +6624,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>377</v>
       </c>
@@ -6588,7 +6638,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>379</v>
       </c>
@@ -6602,7 +6652,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>381</v>
       </c>
@@ -6616,7 +6666,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>383</v>
       </c>
@@ -6633,7 +6683,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>387</v>
       </c>
@@ -6650,7 +6700,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -6664,7 +6714,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>392</v>
       </c>
@@ -6678,7 +6728,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>394</v>
       </c>
@@ -6692,7 +6742,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>396</v>
       </c>
@@ -6706,7 +6756,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>398</v>
       </c>
@@ -6720,7 +6770,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>400</v>
       </c>
@@ -6734,7 +6784,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>402</v>
       </c>
@@ -6748,7 +6798,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>404</v>
       </c>
@@ -6762,7 +6812,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>406</v>
       </c>
@@ -6776,7 +6826,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>408</v>
       </c>
@@ -6798,19 +6848,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="6" width="8.88671875" customWidth="1"/>
+    <col min="2" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>418</v>
       </c>
@@ -6836,7 +6886,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -6862,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -6888,7 +6938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -6914,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>416</v>
       </c>
@@ -6940,7 +6990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>417</v>
       </c>
@@ -6948,7 +6998,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -6966,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -6992,7 +7042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>107</v>
       </c>
@@ -7018,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>419</v>
       </c>
@@ -7044,7 +7094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>420</v>
       </c>
@@ -7070,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -7096,7 +7146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -7122,10 +7172,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>421</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
@@ -7145,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -7171,10 +7224,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>422</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -7194,10 +7250,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>423</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>3</v>
       </c>
@@ -7217,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>424</v>
       </c>
@@ -7243,10 +7302,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>425</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>3</v>
       </c>
@@ -7266,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>370</v>
       </c>
@@ -7290,6 +7352,66 @@
       </c>
       <c r="H19">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f t="shared" ref="B21:H21" si="0">SUM(B2:B20)</f>
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="I21">
+        <f>SUM(C21:H21)</f>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/chart/db_chart.xlsx
+++ b/chart/db_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nurupo/Desktop/dev/Music-Outlier-Browser/chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421873F6-5C83-9F4B-9310-C21AE844F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B74A6E-F36D-BD46-850A-3E555D2E2393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artist Outlier Category 9a010c1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="430">
   <si>
     <t>Artist</t>
   </si>
@@ -1345,12 +1345,21 @@
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>MNEMIC</t>
+  </si>
+  <si>
+    <t>Rod Lee</t>
+  </si>
+  <si>
+    <t>Colin Meloy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2154,131 +2163,149 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Zakk Wylde</c:v>
+                  <c:v>Biohazard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Blue Oyster Cult</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Biohazard</c:v>
+                  <c:v>Colin Meloy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>MNEMIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rod Lee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Mamas &amp; The Papas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Waybacks</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Weather Girls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Zombies</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thievery Corporation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thin Lizzy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Tim Deluxe</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Triangle</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Uncle Tupelo</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Voivod</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Warren Zevon</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Whitney Houston</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Wild Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Wilson Pickett</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Yoko Ono</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wilson Pickett</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Wild Strawberries</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Whitney Houston</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Warren Zevon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Voivod</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Uncle Tupelo</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Triangle</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tim Deluxe</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Thin Lizzy</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Thievery Corporation</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>The Zombies</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>The Weather Girls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>The Waybacks</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>The luan MacLean</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>The Mamas &amp; The Papas</c:v>
+                <c:pt idx="21">
+                  <c:v>Zakk Wylde</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$20</c:f>
+              <c:f>工作表1!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2317,77 +2344,86 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Zakk Wylde</c:v>
+                  <c:v>Biohazard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Blue Oyster Cult</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Biohazard</c:v>
+                  <c:v>Colin Meloy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>MNEMIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rod Lee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Mamas &amp; The Papas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Waybacks</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Weather Girls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Zombies</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thievery Corporation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thin Lizzy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Tim Deluxe</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Triangle</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Uncle Tupelo</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Voivod</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Warren Zevon</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Whitney Houston</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Wild Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Wilson Pickett</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Yoko Ono</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wilson Pickett</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Wild Strawberries</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Whitney Houston</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Warren Zevon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Voivod</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Uncle Tupelo</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Triangle</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tim Deluxe</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Thin Lizzy</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Thievery Corporation</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>The Zombies</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>The Weather Girls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>The Waybacks</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>The luan MacLean</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>The Mamas &amp; The Papas</c:v>
+                <c:pt idx="21">
+                  <c:v>Zakk Wylde</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$20</c:f>
+              <c:f>工作表1!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2408,39 +2444,48 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2480,89 +2525,98 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Zakk Wylde</c:v>
+                  <c:v>Biohazard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Blue Oyster Cult</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Biohazard</c:v>
+                  <c:v>Colin Meloy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>MNEMIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rod Lee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Mamas &amp; The Papas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Waybacks</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Weather Girls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Zombies</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thievery Corporation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thin Lizzy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Tim Deluxe</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Triangle</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Uncle Tupelo</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Voivod</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Warren Zevon</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Whitney Houston</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Wild Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Wilson Pickett</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Yoko Ono</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wilson Pickett</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Wild Strawberries</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Whitney Houston</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Warren Zevon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Voivod</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Uncle Tupelo</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Triangle</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tim Deluxe</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Thin Lizzy</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Thievery Corporation</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>The Zombies</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>The Weather Girls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>The Waybacks</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>The luan MacLean</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>The Mamas &amp; The Papas</c:v>
+                <c:pt idx="21">
+                  <c:v>Zakk Wylde</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$2:$E$20</c:f>
+              <c:f>工作表1!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2604,6 +2658,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2643,75 +2706,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Zakk Wylde</c:v>
+                  <c:v>Biohazard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Blue Oyster Cult</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Biohazard</c:v>
+                  <c:v>Colin Meloy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>MNEMIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rod Lee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Mamas &amp; The Papas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Waybacks</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Weather Girls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Zombies</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thievery Corporation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thin Lizzy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Tim Deluxe</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Triangle</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Uncle Tupelo</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Voivod</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Warren Zevon</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Whitney Houston</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Wild Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Wilson Pickett</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Yoko Ono</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wilson Pickett</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Wild Strawberries</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Whitney Houston</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Warren Zevon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Voivod</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Uncle Tupelo</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Triangle</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tim Deluxe</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Thin Lizzy</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Thievery Corporation</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>The Zombies</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>The Weather Girls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>The Waybacks</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>The luan MacLean</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>The Mamas &amp; The Papas</c:v>
+                <c:pt idx="21">
+                  <c:v>Zakk Wylde</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$F$2:$F$20</c:f>
+              <c:f>工作表1!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2728,45 +2800,54 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2797,11 +2878,34 @@
               <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-FDD6-F94B-87E4-77AF560DB19E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
@@ -2823,77 +2927,107 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FDD6-F94B-87E4-77AF560DB19E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Zakk Wylde</c:v>
+                  <c:v>Biohazard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Blue Oyster Cult</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Biohazard</c:v>
+                  <c:v>Colin Meloy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>MNEMIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rod Lee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Mamas &amp; The Papas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Waybacks</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Weather Girls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Zombies</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thievery Corporation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thin Lizzy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Tim Deluxe</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Triangle</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Uncle Tupelo</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Voivod</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Warren Zevon</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Whitney Houston</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Wild Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Wilson Pickett</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Yoko Ono</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wilson Pickett</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Wild Strawberries</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Whitney Houston</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Warren Zevon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Voivod</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Uncle Tupelo</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Triangle</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tim Deluxe</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Thin Lizzy</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Thievery Corporation</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>The Zombies</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>The Weather Girls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>The Waybacks</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>The luan MacLean</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>The Mamas &amp; The Papas</c:v>
+                <c:pt idx="21">
+                  <c:v>Zakk Wylde</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$2:$G$20</c:f>
+              <c:f>工作表1!$G$2:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2904,7 +3038,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2919,29 +3053,29 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2949,6 +3083,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2988,131 +3131,149 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$20</c:f>
+              <c:f>工作表1!$A$2:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>Zakk Wylde</c:v>
+                  <c:v>Biohazard</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Blue Oyster Cult</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Biohazard</c:v>
+                  <c:v>Colin Meloy</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>MNEMIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rod Lee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The luan MacLean</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Mamas &amp; The Papas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Waybacks</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Weather Girls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Zombies</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thievery Corporation</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thin Lizzy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Tim Deluxe</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Triangle</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Uncle Tupelo</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Voivod</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Warren Zevon</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Whitney Houston</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Wild Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Wilson Pickett</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Yoko Ono</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wilson Pickett</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Wild Strawberries</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Whitney Houston</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Warren Zevon</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Voivod</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Uncle Tupelo</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Triangle</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tim Deluxe</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Thin Lizzy</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Thievery Corporation</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>The Zombies</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>The Weather Girls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>The Waybacks</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>The luan MacLean</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>The Mamas &amp; The Papas</c:v>
+                <c:pt idx="21">
+                  <c:v>Zakk Wylde</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$H$2:$H$20</c:f>
+              <c:f>工作表1!$H$2:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4204,14 +4365,14 @@
       <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4248,7 +4409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -4259,7 +4420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4273,7 +4434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -4287,7 +4448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -4304,7 +4465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4315,7 +4476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -4329,7 +4490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -4343,7 +4504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -4357,7 +4518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -4371,7 +4532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -4385,7 +4546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -4399,7 +4560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -4413,7 +4574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -4424,7 +4585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -4438,7 +4599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -4452,7 +4613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -4466,7 +4627,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -4480,7 +4641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="B20" t="s">
         <v>50</v>
       </c>
@@ -4497,7 +4658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -4511,7 +4672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -4522,7 +4683,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -4536,7 +4697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -4550,7 +4711,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="B25" t="s">
         <v>62</v>
       </c>
@@ -4564,7 +4725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -4578,7 +4739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="B27" t="s">
         <v>66</v>
       </c>
@@ -4592,7 +4753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="B28" t="s">
         <v>68</v>
       </c>
@@ -4609,7 +4770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="B29" t="s">
         <v>71</v>
       </c>
@@ -4623,7 +4784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -4634,7 +4795,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="B31" t="s">
         <v>75</v>
       </c>
@@ -4648,7 +4809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="B32" t="s">
         <v>77</v>
       </c>
@@ -4662,7 +4823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -4676,7 +4837,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="B34" t="s">
         <v>81</v>
       </c>
@@ -4693,7 +4854,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -4710,7 +4871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="B36" t="s">
         <v>87</v>
       </c>
@@ -4727,7 +4888,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="B37" t="s">
         <v>90</v>
       </c>
@@ -4744,7 +4905,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -4755,7 +4916,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="B39" t="s">
         <v>95</v>
       </c>
@@ -4769,7 +4930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="B40" t="s">
         <v>97</v>
       </c>
@@ -4783,7 +4944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="B41" t="s">
         <v>99</v>
       </c>
@@ -4797,7 +4958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="B42" t="s">
         <v>101</v>
       </c>
@@ -4808,7 +4969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="B43" t="s">
         <v>103</v>
       </c>
@@ -4819,7 +4980,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="B44" t="s">
         <v>104</v>
       </c>
@@ -4830,7 +4991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="B45" t="s">
         <v>105</v>
       </c>
@@ -4844,7 +5005,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -4855,7 +5016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="B47" t="s">
         <v>109</v>
       </c>
@@ -4869,7 +5030,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="B48" t="s">
         <v>111</v>
       </c>
@@ -4883,7 +5044,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="B49" t="s">
         <v>113</v>
       </c>
@@ -4897,7 +5058,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="B50" t="s">
         <v>115</v>
       </c>
@@ -4911,7 +5072,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="B51" t="s">
         <v>117</v>
       </c>
@@ -4925,7 +5086,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="B53" t="s">
         <v>119</v>
       </c>
@@ -4939,7 +5100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="B54" t="s">
         <v>121</v>
       </c>
@@ -4953,7 +5114,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -4964,7 +5125,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="B56" t="s">
         <v>125</v>
       </c>
@@ -4978,7 +5139,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="B57" t="s">
         <v>127</v>
       </c>
@@ -4992,7 +5153,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="B58" t="s">
         <v>129</v>
       </c>
@@ -5006,7 +5167,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="B59" t="s">
         <v>131</v>
       </c>
@@ -5020,7 +5181,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="B60" t="s">
         <v>133</v>
       </c>
@@ -5037,7 +5198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="B61" t="s">
         <v>135</v>
       </c>
@@ -5054,7 +5215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="B62" t="s">
         <v>137</v>
       </c>
@@ -5068,7 +5229,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="B63" t="s">
         <v>139</v>
       </c>
@@ -5082,7 +5243,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -5093,7 +5254,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="B65" t="s">
         <v>144</v>
       </c>
@@ -5107,7 +5268,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="B66" t="s">
         <v>146</v>
       </c>
@@ -5121,7 +5282,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="B67" t="s">
         <v>148</v>
       </c>
@@ -5135,7 +5296,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="B68" t="s">
         <v>150</v>
       </c>
@@ -5149,7 +5310,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="B69" t="s">
         <v>153</v>
       </c>
@@ -5163,7 +5324,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="B70" t="s">
         <v>156</v>
       </c>
@@ -5177,7 +5338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="B71" t="s">
         <v>158</v>
       </c>
@@ -5194,7 +5355,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="B72" t="s">
         <v>161</v>
       </c>
@@ -5208,7 +5369,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="B73" t="s">
         <v>163</v>
       </c>
@@ -5222,7 +5383,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -5236,7 +5397,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="B75" t="s">
         <v>169</v>
       </c>
@@ -5250,7 +5411,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="B76" t="s">
         <v>171</v>
       </c>
@@ -5267,7 +5428,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="B77" t="s">
         <v>174</v>
       </c>
@@ -5284,7 +5445,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="B78" t="s">
         <v>176</v>
       </c>
@@ -5298,7 +5459,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="B79" t="s">
         <v>178</v>
       </c>
@@ -5312,7 +5473,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="B80" t="s">
         <v>180</v>
       </c>
@@ -5326,7 +5487,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="B81" t="s">
         <v>182</v>
       </c>
@@ -5340,7 +5501,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="B82" t="s">
         <v>184</v>
       </c>
@@ -5354,7 +5515,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>186</v>
       </c>
@@ -5365,7 +5526,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="B84" t="s">
         <v>188</v>
       </c>
@@ -5379,7 +5540,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="B85" t="s">
         <v>190</v>
       </c>
@@ -5393,7 +5554,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="B86" t="s">
         <v>193</v>
       </c>
@@ -5407,7 +5568,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="B87" t="s">
         <v>195</v>
       </c>
@@ -5421,7 +5582,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="B88" t="s">
         <v>197</v>
       </c>
@@ -5432,7 +5593,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="B89" t="s">
         <v>199</v>
       </c>
@@ -5449,7 +5610,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="B90" t="s">
         <v>202</v>
       </c>
@@ -5463,7 +5624,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="B91" t="s">
         <v>199</v>
       </c>
@@ -5477,7 +5638,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>205</v>
       </c>
@@ -5488,7 +5649,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="B93" t="s">
         <v>207</v>
       </c>
@@ -5502,7 +5663,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="B94" t="s">
         <v>209</v>
       </c>
@@ -5516,7 +5677,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="B95" t="s">
         <v>211</v>
       </c>
@@ -5530,7 +5691,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="B96" t="s">
         <v>213</v>
       </c>
@@ -5544,7 +5705,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="B97" t="s">
         <v>215</v>
       </c>
@@ -5558,7 +5719,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="B98" t="s">
         <v>217</v>
       </c>
@@ -5572,7 +5733,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="B99" t="s">
         <v>219</v>
       </c>
@@ -5589,7 +5750,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>222</v>
       </c>
@@ -5600,7 +5761,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="B101" t="s">
         <v>224</v>
       </c>
@@ -5614,7 +5775,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="B102" t="s">
         <v>226</v>
       </c>
@@ -5628,7 +5789,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="B103" t="s">
         <v>228</v>
       </c>
@@ -5642,7 +5803,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="B104" t="s">
         <v>230</v>
       </c>
@@ -5659,7 +5820,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="B105" t="s">
         <v>232</v>
       </c>
@@ -5676,7 +5837,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="B106" t="s">
         <v>234</v>
       </c>
@@ -5690,7 +5851,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="B107" t="s">
         <v>236</v>
       </c>
@@ -5704,7 +5865,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="B108" t="s">
         <v>238</v>
       </c>
@@ -5718,7 +5879,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="B109" t="s">
         <v>240</v>
       </c>
@@ -5732,7 +5893,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="B110" t="s">
         <v>242</v>
       </c>
@@ -5746,7 +5907,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>244</v>
       </c>
@@ -5757,7 +5918,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="B112" t="s">
         <v>246</v>
       </c>
@@ -5771,7 +5932,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="B113" t="s">
         <v>248</v>
       </c>
@@ -5785,7 +5946,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="B114" t="s">
         <v>250</v>
       </c>
@@ -5799,7 +5960,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="B115" t="s">
         <v>252</v>
       </c>
@@ -5813,7 +5974,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="B116" t="s">
         <v>254</v>
       </c>
@@ -5827,7 +5988,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="B117" t="s">
         <v>256</v>
       </c>
@@ -5841,7 +6002,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>258</v>
       </c>
@@ -5852,7 +6013,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="B119" t="s">
         <v>260</v>
       </c>
@@ -5866,7 +6027,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="B120" t="s">
         <v>262</v>
       </c>
@@ -5880,7 +6041,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="B121" t="s">
         <v>264</v>
       </c>
@@ -5894,7 +6055,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="B122" t="s">
         <v>266</v>
       </c>
@@ -5911,7 +6072,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="B123" t="s">
         <v>269</v>
       </c>
@@ -5925,7 +6086,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="B124" t="s">
         <v>271</v>
       </c>
@@ -5939,12 +6100,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>275</v>
       </c>
@@ -5952,7 +6113,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="B128" t="s">
         <v>277</v>
       </c>
@@ -5966,7 +6127,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="B129" t="s">
         <v>279</v>
       </c>
@@ -5980,7 +6141,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="B130" t="s">
         <v>281</v>
       </c>
@@ -5994,7 +6155,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="B131" t="s">
         <v>283</v>
       </c>
@@ -6011,7 +6172,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="B132" t="s">
         <v>286</v>
       </c>
@@ -6028,7 +6189,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="B133" t="s">
         <v>288</v>
       </c>
@@ -6045,7 +6206,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -6056,7 +6217,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="B135" t="s">
         <v>292</v>
       </c>
@@ -6070,7 +6231,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="B136" t="s">
         <v>294</v>
       </c>
@@ -6084,7 +6245,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="B137" t="s">
         <v>296</v>
       </c>
@@ -6098,7 +6259,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="B138" t="s">
         <v>298</v>
       </c>
@@ -6112,7 +6273,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="B139" t="s">
         <v>300</v>
       </c>
@@ -6126,7 +6287,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>302</v>
       </c>
@@ -6140,7 +6301,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="B141" t="s">
         <v>305</v>
       </c>
@@ -6154,7 +6315,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="B142" t="s">
         <v>307</v>
       </c>
@@ -6168,7 +6329,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="B143" t="s">
         <v>309</v>
       </c>
@@ -6182,7 +6343,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="B144" t="s">
         <v>311</v>
       </c>
@@ -6196,7 +6357,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>313</v>
       </c>
@@ -6204,7 +6365,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="B146" t="s">
         <v>315</v>
       </c>
@@ -6218,7 +6379,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="B147" t="s">
         <v>317</v>
       </c>
@@ -6232,7 +6393,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="B148" t="s">
         <v>319</v>
       </c>
@@ -6246,7 +6407,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>321</v>
       </c>
@@ -6254,7 +6415,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="B151" t="s">
         <v>323</v>
       </c>
@@ -6268,7 +6429,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="B152" t="s">
         <v>325</v>
       </c>
@@ -6282,7 +6443,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="B153" t="s">
         <v>319</v>
       </c>
@@ -6296,7 +6457,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="B154" t="s">
         <v>328</v>
       </c>
@@ -6310,12 +6471,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>331</v>
       </c>
@@ -6323,7 +6484,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="B158" t="s">
         <v>333</v>
       </c>
@@ -6337,7 +6498,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="B159" t="s">
         <v>335</v>
       </c>
@@ -6351,7 +6512,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="B160" t="s">
         <v>337</v>
       </c>
@@ -6365,7 +6526,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="B161" t="s">
         <v>339</v>
       </c>
@@ -6379,7 +6540,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="B162" t="s">
         <v>341</v>
       </c>
@@ -6393,7 +6554,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>343</v>
       </c>
@@ -6401,7 +6562,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="B165" t="s">
         <v>345</v>
       </c>
@@ -6415,7 +6576,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="B166" t="s">
         <v>347</v>
       </c>
@@ -6429,7 +6590,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="B167" t="s">
         <v>349</v>
       </c>
@@ -6443,7 +6604,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="B168" t="s">
         <v>351</v>
       </c>
@@ -6457,7 +6618,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>354</v>
       </c>
@@ -6465,7 +6626,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="B170" t="s">
         <v>356</v>
       </c>
@@ -6479,7 +6640,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="B171" t="s">
         <v>357</v>
       </c>
@@ -6493,7 +6654,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="B172" t="s">
         <v>359</v>
       </c>
@@ -6507,7 +6668,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>360</v>
       </c>
@@ -6515,7 +6676,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="B174" t="s">
         <v>360</v>
       </c>
@@ -6529,7 +6690,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="B175" t="s">
         <v>363</v>
       </c>
@@ -6543,7 +6704,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="B176" t="s">
         <v>365</v>
       </c>
@@ -6557,7 +6718,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="B177" t="s">
         <v>367</v>
       </c>
@@ -6574,7 +6735,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>370</v>
       </c>
@@ -6582,7 +6743,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="B180" t="s">
         <v>371</v>
       </c>
@@ -6596,7 +6757,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="B181" t="s">
         <v>373</v>
       </c>
@@ -6610,7 +6771,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="B182" t="s">
         <v>375</v>
       </c>
@@ -6624,7 +6785,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8">
       <c r="B183" t="s">
         <v>377</v>
       </c>
@@ -6638,7 +6799,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="B184" t="s">
         <v>379</v>
       </c>
@@ -6652,7 +6813,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="B185" t="s">
         <v>381</v>
       </c>
@@ -6666,7 +6827,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="B186" t="s">
         <v>383</v>
       </c>
@@ -6683,7 +6844,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="B187" t="s">
         <v>387</v>
       </c>
@@ -6700,7 +6861,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -6714,7 +6875,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="B190" t="s">
         <v>392</v>
       </c>
@@ -6728,7 +6889,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="B191" t="s">
         <v>394</v>
       </c>
@@ -6742,7 +6903,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="B192" t="s">
         <v>396</v>
       </c>
@@ -6756,7 +6917,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5">
       <c r="B193" t="s">
         <v>398</v>
       </c>
@@ -6770,7 +6931,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5">
       <c r="B194" t="s">
         <v>400</v>
       </c>
@@ -6784,7 +6945,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5">
       <c r="B195" t="s">
         <v>402</v>
       </c>
@@ -6798,7 +6959,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5">
       <c r="B196" t="s">
         <v>404</v>
       </c>
@@ -6812,7 +6973,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5">
       <c r="B197" t="s">
         <v>406</v>
       </c>
@@ -6826,7 +6987,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5">
       <c r="B198" t="s">
         <v>408</v>
       </c>
@@ -6848,19 +7009,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="134" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="A23:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" t="s">
         <v>418</v>
       </c>
@@ -6886,21 +7047,21 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6909,10 +7070,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -6938,165 +7099,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>429</v>
       </c>
       <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -7105,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7114,171 +7275,171 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>166</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>421</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>422</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>423</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -7287,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -7296,125 +7457,206 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>425</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>370</v>
-      </c>
-      <c r="B19">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27">
+        <f>SUM(B2:B23)</f>
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C2:C23)</f>
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <f>SUM(D2:D23)</f>
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>360</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <f t="shared" ref="B21:H21" si="0">SUM(B2:B20)</f>
-        <v>46</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
+      <c r="E27">
+        <f>SUM(E2:E23)</f>
         <v>5</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
+      <c r="F27">
+        <f>SUM(F2:F23)</f>
         <v>5</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="I21">
-        <f>SUM(C21:H21)</f>
-        <v>65</v>
+      <c r="G27">
+        <f>SUM(G2:G23)</f>
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <f>SUM(H2:H23)</f>
+        <v>37</v>
+      </c>
+      <c r="I27">
+        <f>SUM(C27:H27)</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/chart/db_chart.xlsx
+++ b/chart/db_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nurupo/Desktop/dev/Music-Outlier-Browser/chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B74A6E-F36D-BD46-850A-3E555D2E2393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC19D48-AA25-A24A-B2D7-AB06B57BEBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,21 @@
     <sheet name="Artist Outlier Category 9a010c1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">工作表1!$A$2:$A$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">工作表1!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">工作表1!$G$2:$G$23</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">工作表1!$H$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">工作表1!$H$2:$H$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">工作表1!$C$2:$C$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">工作表1!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">工作表1!$D$2:$D$23</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">工作表1!$E$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">工作表1!$E$2:$E$23</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">工作表1!$F$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">工作表1!$F$2:$F$23</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">工作表1!$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1359,7 +1374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2044,34 +2059,30 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1050" b="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>Outliers For Each Artists</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+            <a:endParaRPr lang="zh-TW" sz="1050" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -2089,16 +2100,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-JP"/>
@@ -3326,13 +3337,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:ea typeface="Acorn Full Nostalgia" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-JP"/>
@@ -3382,13 +3393,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-JP"/>
@@ -3412,10 +3426,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80668404625097534"/>
-          <c:y val="0.37432406285752745"/>
-          <c:w val="0.17488843532150619"/>
-          <c:h val="0.32453563496870586"/>
+          <c:x val="0.74614156446689639"/>
+          <c:y val="0.38099821375925641"/>
+          <c:w val="0.16402189160394845"/>
+          <c:h val="0.28388368720242868"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3431,13 +3445,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:ea typeface="Acorn Full Nostalgia" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-JP"/>
@@ -3463,7 +3477,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="900">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-JP"/>
     </a:p>
@@ -4025,16 +4042,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>538368</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>80066</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481502</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>645049</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>122804</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>575734</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>196952</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4365,14 +4382,14 @@
       <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4398,7 +4415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +4426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -4420,7 +4437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +4451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -4448,7 +4465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -4465,7 +4482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4476,7 +4493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -4490,7 +4507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -4504,7 +4521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -4518,7 +4535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -4532,7 +4549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -4546,7 +4563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -4560,7 +4577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -4574,7 +4591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -4585,7 +4602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -4599,7 +4616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -4613,7 +4630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -4627,7 +4644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -4641,7 +4658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>50</v>
       </c>
@@ -4658,7 +4675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -4672,7 +4689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -4683,7 +4700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -4697,7 +4714,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -4711,7 +4728,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>62</v>
       </c>
@@ -4725,7 +4742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -4739,7 +4756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>66</v>
       </c>
@@ -4753,7 +4770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>68</v>
       </c>
@@ -4770,7 +4787,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>71</v>
       </c>
@@ -4784,7 +4801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -4795,7 +4812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>75</v>
       </c>
@@ -4809,7 +4826,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>77</v>
       </c>
@@ -4823,7 +4840,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -4837,7 +4854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>81</v>
       </c>
@@ -4854,7 +4871,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -4871,7 +4888,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>87</v>
       </c>
@@ -4888,7 +4905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>90</v>
       </c>
@@ -4905,7 +4922,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -4916,7 +4933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>95</v>
       </c>
@@ -4930,7 +4947,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>97</v>
       </c>
@@ -4944,7 +4961,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>99</v>
       </c>
@@ -4958,7 +4975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>101</v>
       </c>
@@ -4969,7 +4986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>103</v>
       </c>
@@ -4980,7 +4997,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>104</v>
       </c>
@@ -4991,7 +5008,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>105</v>
       </c>
@@ -5005,7 +5022,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -5016,7 +5033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>109</v>
       </c>
@@ -5030,7 +5047,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>111</v>
       </c>
@@ -5044,7 +5061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>113</v>
       </c>
@@ -5058,7 +5075,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>115</v>
       </c>
@@ -5072,7 +5089,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>117</v>
       </c>
@@ -5086,7 +5103,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>119</v>
       </c>
@@ -5100,7 +5117,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>121</v>
       </c>
@@ -5114,7 +5131,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -5125,7 +5142,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>125</v>
       </c>
@@ -5139,7 +5156,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>127</v>
       </c>
@@ -5153,7 +5170,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>129</v>
       </c>
@@ -5167,7 +5184,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>131</v>
       </c>
@@ -5181,7 +5198,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>133</v>
       </c>
@@ -5198,7 +5215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>135</v>
       </c>
@@ -5215,7 +5232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>137</v>
       </c>
@@ -5229,7 +5246,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>139</v>
       </c>
@@ -5243,7 +5260,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -5254,7 +5271,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>144</v>
       </c>
@@ -5268,7 +5285,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>146</v>
       </c>
@@ -5282,7 +5299,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>148</v>
       </c>
@@ -5296,7 +5313,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>150</v>
       </c>
@@ -5310,7 +5327,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>153</v>
       </c>
@@ -5324,7 +5341,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>156</v>
       </c>
@@ -5338,7 +5355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>158</v>
       </c>
@@ -5355,7 +5372,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>161</v>
       </c>
@@ -5369,7 +5386,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>163</v>
       </c>
@@ -5383,7 +5400,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -5397,7 +5414,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>169</v>
       </c>
@@ -5411,7 +5428,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>171</v>
       </c>
@@ -5428,7 +5445,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>174</v>
       </c>
@@ -5445,7 +5462,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>176</v>
       </c>
@@ -5459,7 +5476,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>178</v>
       </c>
@@ -5473,7 +5490,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>180</v>
       </c>
@@ -5487,7 +5504,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>182</v>
       </c>
@@ -5501,7 +5518,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>184</v>
       </c>
@@ -5515,7 +5532,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>186</v>
       </c>
@@ -5526,7 +5543,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>188</v>
       </c>
@@ -5540,7 +5557,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>190</v>
       </c>
@@ -5554,7 +5571,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>193</v>
       </c>
@@ -5568,7 +5585,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>195</v>
       </c>
@@ -5582,7 +5599,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>197</v>
       </c>
@@ -5593,7 +5610,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>199</v>
       </c>
@@ -5610,7 +5627,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>202</v>
       </c>
@@ -5624,7 +5641,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>199</v>
       </c>
@@ -5638,7 +5655,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>205</v>
       </c>
@@ -5649,7 +5666,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>207</v>
       </c>
@@ -5663,7 +5680,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>209</v>
       </c>
@@ -5677,7 +5694,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>211</v>
       </c>
@@ -5691,7 +5708,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>213</v>
       </c>
@@ -5705,7 +5722,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>215</v>
       </c>
@@ -5719,7 +5736,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>217</v>
       </c>
@@ -5733,7 +5750,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>219</v>
       </c>
@@ -5750,7 +5767,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>222</v>
       </c>
@@ -5761,7 +5778,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>224</v>
       </c>
@@ -5775,7 +5792,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>226</v>
       </c>
@@ -5789,7 +5806,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>228</v>
       </c>
@@ -5803,7 +5820,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>230</v>
       </c>
@@ -5820,7 +5837,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>232</v>
       </c>
@@ -5837,7 +5854,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>234</v>
       </c>
@@ -5851,7 +5868,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>236</v>
       </c>
@@ -5865,7 +5882,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>238</v>
       </c>
@@ -5879,7 +5896,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>240</v>
       </c>
@@ -5893,7 +5910,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>242</v>
       </c>
@@ -5907,7 +5924,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>244</v>
       </c>
@@ -5918,7 +5935,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>246</v>
       </c>
@@ -5932,7 +5949,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>248</v>
       </c>
@@ -5946,7 +5963,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>250</v>
       </c>
@@ -5960,7 +5977,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>252</v>
       </c>
@@ -5974,7 +5991,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>254</v>
       </c>
@@ -5988,7 +6005,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>256</v>
       </c>
@@ -6002,7 +6019,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>258</v>
       </c>
@@ -6013,7 +6030,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>260</v>
       </c>
@@ -6027,7 +6044,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>262</v>
       </c>
@@ -6041,7 +6058,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>264</v>
       </c>
@@ -6055,7 +6072,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>266</v>
       </c>
@@ -6072,7 +6089,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>269</v>
       </c>
@@ -6086,7 +6103,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>271</v>
       </c>
@@ -6100,12 +6117,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>275</v>
       </c>
@@ -6113,7 +6130,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>277</v>
       </c>
@@ -6127,7 +6144,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>279</v>
       </c>
@@ -6141,7 +6158,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>281</v>
       </c>
@@ -6155,7 +6172,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>283</v>
       </c>
@@ -6172,7 +6189,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>286</v>
       </c>
@@ -6189,7 +6206,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>288</v>
       </c>
@@ -6206,7 +6223,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -6217,7 +6234,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>292</v>
       </c>
@@ -6231,7 +6248,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>294</v>
       </c>
@@ -6245,7 +6262,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>296</v>
       </c>
@@ -6259,7 +6276,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>298</v>
       </c>
@@ -6273,7 +6290,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>300</v>
       </c>
@@ -6287,7 +6304,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>302</v>
       </c>
@@ -6301,7 +6318,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>305</v>
       </c>
@@ -6315,7 +6332,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>307</v>
       </c>
@@ -6329,7 +6346,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>309</v>
       </c>
@@ -6343,7 +6360,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>311</v>
       </c>
@@ -6357,7 +6374,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>313</v>
       </c>
@@ -6365,7 +6382,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>315</v>
       </c>
@@ -6379,7 +6396,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>317</v>
       </c>
@@ -6393,7 +6410,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>319</v>
       </c>
@@ -6407,7 +6424,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>321</v>
       </c>
@@ -6415,7 +6432,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>323</v>
       </c>
@@ -6429,7 +6446,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>325</v>
       </c>
@@ -6443,7 +6460,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>319</v>
       </c>
@@ -6457,7 +6474,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>328</v>
       </c>
@@ -6471,12 +6488,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>331</v>
       </c>
@@ -6484,7 +6501,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>333</v>
       </c>
@@ -6498,7 +6515,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>335</v>
       </c>
@@ -6512,7 +6529,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>337</v>
       </c>
@@ -6526,7 +6543,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>339</v>
       </c>
@@ -6540,7 +6557,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>341</v>
       </c>
@@ -6554,7 +6571,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>343</v>
       </c>
@@ -6562,7 +6579,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>345</v>
       </c>
@@ -6576,7 +6593,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>347</v>
       </c>
@@ -6590,7 +6607,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>349</v>
       </c>
@@ -6604,7 +6621,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>351</v>
       </c>
@@ -6618,7 +6635,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>354</v>
       </c>
@@ -6626,7 +6643,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>356</v>
       </c>
@@ -6640,7 +6657,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>357</v>
       </c>
@@ -6654,7 +6671,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>359</v>
       </c>
@@ -6668,7 +6685,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>360</v>
       </c>
@@ -6676,7 +6693,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>360</v>
       </c>
@@ -6690,7 +6707,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>363</v>
       </c>
@@ -6704,7 +6721,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>365</v>
       </c>
@@ -6718,7 +6735,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>367</v>
       </c>
@@ -6735,7 +6752,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>370</v>
       </c>
@@ -6743,7 +6760,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>371</v>
       </c>
@@ -6757,7 +6774,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>373</v>
       </c>
@@ -6771,7 +6788,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>375</v>
       </c>
@@ -6785,7 +6802,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>377</v>
       </c>
@@ -6799,7 +6816,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>379</v>
       </c>
@@ -6813,7 +6830,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>381</v>
       </c>
@@ -6827,7 +6844,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>383</v>
       </c>
@@ -6844,7 +6861,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>387</v>
       </c>
@@ -6861,7 +6878,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -6875,7 +6892,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>392</v>
       </c>
@@ -6889,7 +6906,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>394</v>
       </c>
@@ -6903,7 +6920,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>396</v>
       </c>
@@ -6917,7 +6934,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="193" spans="2:5">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>398</v>
       </c>
@@ -6931,7 +6948,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="194" spans="2:5">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>400</v>
       </c>
@@ -6945,7 +6962,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="195" spans="2:5">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>402</v>
       </c>
@@ -6959,7 +6976,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="196" spans="2:5">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>404</v>
       </c>
@@ -6973,7 +6990,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="197" spans="2:5">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>406</v>
       </c>
@@ -6987,7 +7004,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="2:5">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>408</v>
       </c>
@@ -7011,17 +7028,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="134" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="A23:B25"/>
+    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="187" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>418</v>
       </c>
@@ -7047,7 +7064,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -7073,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -7099,7 +7116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>429</v>
       </c>
@@ -7125,7 +7142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>427</v>
       </c>
@@ -7151,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>428</v>
       </c>
@@ -7177,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>370</v>
       </c>
@@ -7203,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>360</v>
       </c>
@@ -7229,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>425</v>
       </c>
@@ -7255,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>424</v>
       </c>
@@ -7281,7 +7298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>423</v>
       </c>
@@ -7307,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -7333,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -7359,7 +7376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>421</v>
       </c>
@@ -7385,7 +7402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -7411,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -7437,7 +7454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>420</v>
       </c>
@@ -7463,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>419</v>
       </c>
@@ -7489,7 +7506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
@@ -7515,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -7541,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>417</v>
       </c>
@@ -7567,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>416</v>
       </c>
@@ -7593,7 +7610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -7619,33 +7636,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27">
-        <f>SUM(B2:B23)</f>
+        <f t="shared" ref="B27:H27" si="0">SUM(B2:B23)</f>
         <v>70</v>
       </c>
       <c r="C27">
-        <f>SUM(C2:C23)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D27">
-        <f>SUM(D2:D23)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E27">
-        <f>SUM(E2:E23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F27">
-        <f>SUM(F2:F23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G27">
-        <f>SUM(G2:G23)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H27">
-        <f>SUM(H2:H23)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="I27">
